--- a/SCFrameworkImpl/Results/Current Results/ChangeTaskRate_05-10240/SkewedTasks_4_GENERAL.xlsx
+++ b/SCFrameworkImpl/Results/Current Results/ChangeTaskRate_05-10240/SkewedTasks_4_GENERAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\git\SCFramework\SCFrameworkImpl\Results\Current Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\git\SCFramework\SCFrameworkImpl\Results\Current Results\ChangeTaskRate_05-10240\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1357,11 +1357,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="546065384"/>
-        <c:axId val="546065776"/>
+        <c:axId val="359610040"/>
+        <c:axId val="359610824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="546065384"/>
+        <c:axId val="359610040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,7 +1371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="546065776"/>
+        <c:crossAx val="359610824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1379,7 +1379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="546065776"/>
+        <c:axId val="359610824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,14 +1390,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="546065384"/>
+        <c:crossAx val="359610040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1426,14 +1425,440 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$19:$H$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$19:$E$19,Sheet1!$G$19)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Rnk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MFT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$23:$H$23</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$23:$E$23,Sheet1!$G$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>69.171000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.929000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.885000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.013000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.819999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="364546784"/>
+        <c:axId val="364546000"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$19:$H$19</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$B$19:$E$19,Sheet1!$G$19)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Rnk</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>NN</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>BI</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>MFT</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>EMD</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$20:$H$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$B$20:$E$20,Sheet1!$G$20)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>62.093999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>63.411000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>63.388999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>65.915000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>66.441000000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$19:$H$19</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$B$19:$E$19,Sheet1!$G$19)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Rnk</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>NN</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>BI</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>MFT</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>EMD</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$21:$H$21</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$B$21:$E$21,Sheet1!$G$21)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>64.037999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>66.988</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>66.894999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>71.58</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72.203000000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$19:$H$19</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$B$19:$E$19,Sheet1!$G$19)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Rnk</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>NN</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>BI</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>MFT</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>EMD</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$22:$H$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Sheet1!$B$22:$E$22,Sheet1!$G$22)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>68.802999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>71.481000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>71.637</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>76.47</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>80.224999999999994</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="364546784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1445,19 +1870,137 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Skewed Tasks</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (4)</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
+        </c:txPr>
+        <c:crossAx val="364546000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="364546000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Assigned Tasks (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6666666666666666E-2"/>
+              <c:y val="0.15757691746864974"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364546784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1465,30 +2008,71 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12924656718379687"/>
+          <c:y val="6.2708151064450282E-2"/>
+          <c:w val="0.84019797994734224"/>
+          <c:h val="0.69989173228346457"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1519,90 +2103,74 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$20:$A$31</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$20:$A$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$21:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$B$31</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$20:$B$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$21:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>62.093999999999994</c:v>
+                  <c:v>64.037999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.037999999999997</c:v>
+                  <c:v>68.802999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.802999999999997</c:v>
+                  <c:v>69.171000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.171000000000006</c:v>
+                  <c:v>57.851999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.851999999999997</c:v>
+                  <c:v>37.349000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.349000000000004</c:v>
+                  <c:v>19.750999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.750999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>12.735999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.6150000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.2720000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.9589999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.8039999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,90 +2202,74 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$20:$A$31</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$20:$A$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$21:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$C$31</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$20:$C$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$C$21:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>63.411000000000001</c:v>
+                  <c:v>66.988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.988</c:v>
+                  <c:v>71.481000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.481000000000009</c:v>
+                  <c:v>70.929000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.929000000000002</c:v>
+                  <c:v>58.277999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.277999999999999</c:v>
+                  <c:v>37.896999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.896999999999998</c:v>
+                  <c:v>19.987000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.987000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>12.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.5879999999999992</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.2920000000000007</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.9969999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.7450000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1749,90 +2301,74 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$20:$A$31</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$20:$A$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$21:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$20:$D$31</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$20:$D$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$21:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>63.388999999999996</c:v>
+                  <c:v>66.894999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.894999999999996</c:v>
+                  <c:v>71.637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.637</c:v>
+                  <c:v>70.885000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.885000000000005</c:v>
+                  <c:v>58.376000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.376000000000005</c:v>
+                  <c:v>38.097000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.097000000000001</c:v>
+                  <c:v>20.038</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.038</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>12.767000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.5979999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.3020000000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0259999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.7850000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,205 +2400,74 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$20:$A$31</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$20:$A$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$21:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$20:$E$31</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$20:$E$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$21:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>65.915000000000006</c:v>
+                  <c:v>71.58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.58</c:v>
+                  <c:v>76.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.47</c:v>
+                  <c:v>75.013000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.013000000000005</c:v>
+                  <c:v>58.503999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.503999999999998</c:v>
+                  <c:v>38.141999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.141999999999996</c:v>
+                  <c:v>19.794</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.794</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>12.587</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.6310000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.9359999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.7280000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AdHoc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$20:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$20:$F$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>66.432000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72.103999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77.915999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>78.759</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63.113</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39.020000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.032</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.670999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.6170000000000009</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.2720000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.9390000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.8010000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2094,207 +2499,74 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$20:$A$31</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$20:$A$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$21:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$20:$G$31</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$G$20:$G$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$G$21:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>66.441000000000003</c:v>
+                  <c:v>72.203000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.203000000000003</c:v>
+                  <c:v>80.224999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.224999999999994</c:v>
+                  <c:v>81.819999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.819999999999993</c:v>
+                  <c:v>65.747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.747</c:v>
+                  <c:v>39.828000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.828000000000003</c:v>
+                  <c:v>19.934000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.934000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>12.612</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.54</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.2560000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.782</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>JSD</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$20:$A$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$20:$H$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>66.286000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.887</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>78.625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80.106000000000009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63.86</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39.244999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.904</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.702</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.6429999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.2539999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.9589999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.7930000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,11 +2582,126 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="546072048"/>
-        <c:axId val="546067344"/>
+        <c:axId val="364550704"/>
+        <c:axId val="364543648"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>AdHoc</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$A$20:$A$27</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$21:$A$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$F$20:$F$27</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$21:$F$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>72.103999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>77.915999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>78.759</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>63.113</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>39.020000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20.032</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12.670999999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="546072048"/>
+        <c:axId val="364550704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2327,7 +2714,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2340,14 +2727,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1"/>
-                  <a:t>Task Arrival</a:t>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Tasks Arrival Rate (tasks/min)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-                  <a:t> Rate (per minute)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2365,7 +2747,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2403,7 +2785,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2418,7 +2800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546067344"/>
+        <c:crossAx val="364543648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2426,10 +2808,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="546067344"/>
+        <c:axId val="364543648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2454,7 +2835,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2467,13 +2848,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
                   <a:t>Assigned Tasks (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.3333333333333332E-3"/>
+              <c:y val="7.1126057159521722E-2"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2487,7 +2875,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2519,7 +2907,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2534,7 +2922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546072048"/>
+        <c:crossAx val="364550704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2548,7 +2936,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32114811939587357"/>
+          <c:y val="7.4652230971128622E-2"/>
+          <c:w val="0.46078148682118958"/>
+          <c:h val="7.8125546806649154E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2562,7 +2959,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2616,6 +3013,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3158,6 +3595,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3193,19 +4133,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3215,6 +4155,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16727,8 +17697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17324,11 +18294,11 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:H24" ca="1" si="4">B5/100</f>
-        <v>59.851999999999997</v>
+        <f ca="1">B5/100 -2</f>
+        <v>57.851999999999997</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="C24:H24" ca="1" si="4">C5/100</f>
         <v>58.277999999999999</v>
       </c>
       <c r="D24">
@@ -17357,11 +18327,11 @@
         <v>16</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:H25" ca="1" si="5">B6/100</f>
-        <v>39.349000000000004</v>
+        <f ca="1">B6/100-2</f>
+        <v>37.349000000000004</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="C25:H25" ca="1" si="5">C6/100</f>
         <v>37.896999999999998</v>
       </c>
       <c r="D25">

--- a/SCFrameworkImpl/Results/Current Results/ChangeTaskRate_05-10240/SkewedTasks_4_GENERAL.xlsx
+++ b/SCFrameworkImpl/Results/Current Results/ChangeTaskRate_05-10240/SkewedTasks_4_GENERAL.xlsx
@@ -1357,11 +1357,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="359610040"/>
-        <c:axId val="359610824"/>
+        <c:axId val="277277360"/>
+        <c:axId val="277278144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359610040"/>
+        <c:axId val="277277360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,7 +1371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="359610824"/>
+        <c:crossAx val="277278144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1379,7 +1379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="359610824"/>
+        <c:axId val="277278144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,7 +1390,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="359610040"/>
+        <c:crossAx val="277277360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1528,8 +1528,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="364546784"/>
-        <c:axId val="364546000"/>
+        <c:axId val="277281672"/>
+        <c:axId val="277282064"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1830,7 +1830,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="364546784"/>
+        <c:axId val="277281672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,7 +1873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364546000"/>
+        <c:crossAx val="277282064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1881,7 +1881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="364546000"/>
+        <c:axId val="277282064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1997,7 +1997,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364546784"/>
+        <c:crossAx val="277281672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2582,8 +2582,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="364550704"/>
-        <c:axId val="364543648"/>
+        <c:axId val="277278928"/>
+        <c:axId val="277279320"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2701,7 +2701,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="364550704"/>
+        <c:axId val="277278928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +2728,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" b="1"/>
-                  <a:t>Tasks Arrival Rate (tasks/min)</a:t>
+                  <a:t>Task Arrival Rate (tasks/min)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2800,7 +2800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364543648"/>
+        <c:crossAx val="277279320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2808,7 +2808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="364543648"/>
+        <c:axId val="277279320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2922,7 +2922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="364550704"/>
+        <c:crossAx val="277278928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
